--- a/data/trans_orig/IP3105-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3105-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953E0574-64DD-46D0-A83A-05FC1CEF552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64785414-6C0C-49A9-8064-C05B3841173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{13799D9D-7D90-4970-A1E8-4628B9844188}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{436201C8-8F18-4652-B598-687AFCA90E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,45 +160,39 @@
     <t>11,62%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
@@ -154,66 +208,204 @@
     <t>1,36%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
     <t>14,2%</t>
   </si>
   <si>
@@ -241,31 +433,31 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>3,09%</t>
@@ -274,9 +466,6 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
     <t>3,16%</t>
   </si>
   <si>
@@ -289,196 +478,61 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>11,07%</t>
@@ -508,31 +562,31 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -562,63 +616,63 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
   </si>
   <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
     <t>3,4%</t>
   </si>
   <si>
@@ -643,31 +697,22 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -676,9 +721,6 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>2,82%</t>
   </si>
   <si>
@@ -691,46 +733,178 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>10,47%</t>
@@ -754,31 +928,31 @@
     <t>9,64%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -805,178 +979,58 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -1003,31 +1057,19 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -1051,51 +1093,60 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar yogures en 2015 (Tasa respuesta: 92,33%)</t>
   </si>
   <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
     <t>7,18%</t>
   </si>
   <si>
@@ -1120,28 +1171,19 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,22%</t>
@@ -1165,46 +1207,169 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>13,96%</t>
@@ -1225,40 +1390,31 @@
     <t>21,0%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
     <t>12,94%</t>
   </si>
   <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>2,83%</t>
@@ -1279,160 +1435,58 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>9,88%</t>
@@ -1462,31 +1516,25 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -1508,54 +1556,6 @@
   </si>
   <si>
     <t>2,61%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF2C98-D9BE-4855-B68E-16676ED08E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A558FD77-9F4F-4527-9B21-B408AD780A9C}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2065,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D4" s="7">
-        <v>17389</v>
+        <v>122717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2080,10 +2080,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I4" s="7">
-        <v>13690</v>
+        <v>120116</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2095,10 +2095,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N4" s="7">
-        <v>31079</v>
+        <v>242833</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2167,10 +2167,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>1298</v>
+        <v>17389</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2182,133 +2182,133 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>13690</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>1298</v>
+        <v>31079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>122717</v>
+        <v>3183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>120116</v>
+        <v>1231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>242833</v>
+        <v>4414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3183</v>
+        <v>1298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
-        <v>1231</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
       <c r="N8" s="7">
-        <v>4414</v>
+        <v>1298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>55</v>
@@ -2373,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="D10" s="7">
-        <v>39440</v>
+        <v>150862</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -2388,10 +2388,10 @@
         <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="I10" s="7">
-        <v>34403</v>
+        <v>141555</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -2403,10 +2403,10 @@
         <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="N10" s="7">
-        <v>73843</v>
+        <v>292417</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -2424,10 +2424,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>64576</v>
+        <v>43216</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>67</v>
@@ -2439,10 +2439,10 @@
         <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>60431</v>
+        <v>38060</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>70</v>
@@ -2454,10 +2454,10 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>125007</v>
+        <v>81276</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>73</v>
@@ -2475,10 +2475,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>8583</v>
+        <v>17714</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -2490,10 +2490,10 @@
         <v>78</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7">
-        <v>8310</v>
+        <v>13760</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -2505,10 +2505,10 @@
         <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N12" s="7">
-        <v>16893</v>
+        <v>31474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>82</v>
@@ -2523,13 +2523,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>152844</v>
+        <v>3182</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -2541,10 +2541,10 @@
         <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>146993</v>
+        <v>5712</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>88</v>
@@ -2556,10 +2556,10 @@
         <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>448</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>299837</v>
+        <v>8894</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>91</v>
@@ -2574,13 +2574,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>12260</v>
+        <v>2419</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>94</v>
@@ -2592,34 +2592,34 @@
         <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>13199</v>
+        <v>4093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>25460</v>
+        <v>6511</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="D15" s="7">
-        <v>277704</v>
+        <v>217392</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -2643,10 +2643,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="I15" s="7">
-        <v>263336</v>
+        <v>203181</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2658,10 +2658,10 @@
         <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>807</v>
+        <v>630</v>
       </c>
       <c r="N15" s="7">
-        <v>541040</v>
+        <v>420573</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2675,55 +2675,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>17714</v>
+        <v>152844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I16" s="7">
-        <v>13760</v>
+        <v>146993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="N16" s="7">
-        <v>31474</v>
+        <v>299837</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2732,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7">
-        <v>43216</v>
+        <v>64576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>38060</v>
+        <v>60431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
+        <v>186</v>
+      </c>
+      <c r="N17" s="7">
+        <v>125007</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="N17" s="7">
-        <v>81276</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,127 +2783,127 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7">
-        <v>2419</v>
+        <v>39440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I18" s="7">
-        <v>4093</v>
+        <v>34403</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N18" s="7">
-        <v>6511</v>
+        <v>73843</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7">
+        <v>12260</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="7">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13199</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="7">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
-        <v>228</v>
-      </c>
-      <c r="D19" s="7">
-        <v>150862</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>210</v>
-      </c>
-      <c r="I19" s="7">
-        <v>141555</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="7">
-        <v>438</v>
-      </c>
       <c r="N19" s="7">
-        <v>292417</v>
+        <v>25460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>3182</v>
+        <v>8583</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>5712</v>
+        <v>8310</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>142</v>
@@ -2915,16 +2915,16 @@
         <v>144</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N20" s="7">
-        <v>8894</v>
+        <v>16893</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>146</v>
@@ -2936,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="D21" s="7">
-        <v>217392</v>
+        <v>277704</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -2951,10 +2951,10 @@
         <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>203181</v>
+        <v>263336</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2966,10 +2966,10 @@
         <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>630</v>
+        <v>807</v>
       </c>
       <c r="N21" s="7">
-        <v>420573</v>
+        <v>541040</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -2989,10 +2989,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>111</v>
+        <v>642</v>
       </c>
       <c r="D22" s="7">
-        <v>74544</v>
+        <v>426423</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>147</v>
@@ -3004,10 +3004,10 @@
         <v>149</v>
       </c>
       <c r="H22" s="7">
-        <v>94</v>
+        <v>611</v>
       </c>
       <c r="I22" s="7">
-        <v>61853</v>
+        <v>408664</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>150</v>
@@ -3019,10 +3019,10 @@
         <v>152</v>
       </c>
       <c r="M22" s="7">
-        <v>205</v>
+        <v>1253</v>
       </c>
       <c r="N22" s="7">
-        <v>136397</v>
+        <v>835086</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>153</v>
@@ -3091,10 +3091,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D24" s="7">
-        <v>12300</v>
+        <v>74544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>165</v>
@@ -3106,10 +3106,10 @@
         <v>167</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I24" s="7">
-        <v>12403</v>
+        <v>61853</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>168</v>
@@ -3121,10 +3121,10 @@
         <v>170</v>
       </c>
       <c r="M24" s="7">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="N24" s="7">
-        <v>24703</v>
+        <v>136397</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>171</v>
@@ -3139,13 +3139,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>642</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>426423</v>
+        <v>18625</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>174</v>
@@ -3157,10 +3157,10 @@
         <v>176</v>
       </c>
       <c r="H25" s="7">
-        <v>611</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>408664</v>
+        <v>20143</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>177</v>
@@ -3172,10 +3172,10 @@
         <v>179</v>
       </c>
       <c r="M25" s="7">
-        <v>1253</v>
+        <v>58</v>
       </c>
       <c r="N25" s="7">
-        <v>835086</v>
+        <v>38768</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>180</v>
@@ -3190,13 +3190,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
-        <v>18625</v>
+        <v>12300</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>183</v>
@@ -3208,10 +3208,10 @@
         <v>185</v>
       </c>
       <c r="H26" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>20143</v>
+        <v>12403</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>186</v>
@@ -3223,10 +3223,10 @@
         <v>188</v>
       </c>
       <c r="M26" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>38768</v>
+        <v>24703</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>189</v>
@@ -3305,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B735B5B-5F53-41E7-9ABC-4A5E4706F714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE70FB-4CC1-4275-8F5D-E95C8AFC6338}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3423,10 +3423,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="D4" s="7">
-        <v>6156</v>
+        <v>160989</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>193</v>
@@ -3438,34 +3438,34 @@
         <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="I4" s="7">
-        <v>5288</v>
+        <v>148697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>453</v>
       </c>
       <c r="N4" s="7">
-        <v>11444</v>
+        <v>309686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3480,13 @@
         <v>11584</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3495,13 +3495,13 @@
         <v>13558</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3510,13 +3510,13 @@
         <v>25142</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,142 +3525,142 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>747</v>
+        <v>6156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>1361</v>
+        <v>5288</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>2108</v>
+        <v>11444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>160989</v>
+        <v>1435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>148697</v>
+        <v>2501</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3936</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="7">
-        <v>453</v>
-      </c>
-      <c r="N7" s="7">
-        <v>309686</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>747</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1435</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
       <c r="I8" s="7">
-        <v>2501</v>
+        <v>1361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3936</v>
+        <v>2108</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>228</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7">
-        <v>27988</v>
+        <v>190123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>231</v>
@@ -3746,10 +3746,10 @@
         <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>33431</v>
+        <v>181787</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>234</v>
@@ -3761,19 +3761,19 @@
         <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>519</v>
       </c>
       <c r="N10" s="7">
-        <v>61420</v>
+        <v>371910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,49 +3782,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>45728</v>
+        <v>26469</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>44206</v>
+        <v>22376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>89934</v>
+        <v>48845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3833,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>12192</v>
+        <v>13823</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>247</v>
@@ -3848,10 +3848,10 @@
         <v>248</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>14313</v>
+        <v>12350</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>249</v>
@@ -3863,10 +3863,10 @@
         <v>251</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N12" s="7">
-        <v>26506</v>
+        <v>26173</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>252</v>
@@ -3881,13 +3881,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>162346</v>
+        <v>6081</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>255</v>
@@ -3899,10 +3899,10 @@
         <v>257</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>141972</v>
+        <v>7606</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>258</v>
@@ -3914,10 +3914,10 @@
         <v>260</v>
       </c>
       <c r="M13" s="7">
-        <v>440</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>304317</v>
+        <v>13687</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>261</v>
@@ -3932,13 +3932,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>19174</v>
+        <v>2144</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>264</v>
@@ -3950,34 +3950,34 @@
         <v>266</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>21161</v>
+        <v>5353</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7497</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M14" s="7">
-        <v>59</v>
-      </c>
-      <c r="N14" s="7">
-        <v>40335</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,10 +3986,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D15" s="7">
-        <v>267428</v>
+        <v>238640</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -4001,10 +4001,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="I15" s="7">
-        <v>255084</v>
+        <v>229472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -4016,10 +4016,10 @@
         <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>757</v>
+        <v>651</v>
       </c>
       <c r="N15" s="7">
-        <v>522511</v>
+        <v>468112</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -4033,55 +4033,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="D16" s="7">
-        <v>13823</v>
+        <v>162346</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>202</v>
+      </c>
+      <c r="I16" s="7">
+        <v>141972</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>12350</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>440</v>
+      </c>
+      <c r="N16" s="7">
+        <v>304317</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="M16" s="7">
-        <v>35</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26173</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,49 +4090,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7">
-        <v>26469</v>
+        <v>45728</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>62</v>
+      </c>
+      <c r="I17" s="7">
+        <v>44206</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H17" s="7">
-        <v>31</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22376</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>131</v>
+      </c>
+      <c r="N17" s="7">
+        <v>89934</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="M17" s="7">
-        <v>68</v>
-      </c>
-      <c r="N17" s="7">
-        <v>48845</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,115 +4141,115 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>2144</v>
+        <v>27988</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7">
-        <v>5353</v>
+        <v>33431</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="N18" s="7">
-        <v>7497</v>
+        <v>61420</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>190123</v>
+        <v>19174</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>181787</v>
+        <v>21161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
-        <v>519</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>371910</v>
+        <v>40335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>6081</v>
+        <v>12192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>305</v>
@@ -4258,10 +4258,10 @@
         <v>306</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>7606</v>
+        <v>14313</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>307</v>
@@ -4273,10 +4273,10 @@
         <v>309</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N20" s="7">
-        <v>13687</v>
+        <v>26506</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>310</v>
@@ -4294,10 +4294,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="D21" s="7">
-        <v>238640</v>
+        <v>267428</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -4309,10 +4309,10 @@
         <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I21" s="7">
-        <v>229472</v>
+        <v>255084</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4324,10 +4324,10 @@
         <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>651</v>
+        <v>757</v>
       </c>
       <c r="N21" s="7">
-        <v>468112</v>
+        <v>522511</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -4347,49 +4347,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>729</v>
       </c>
       <c r="D22" s="7">
-        <v>47967</v>
+        <v>513459</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
-        <v>73</v>
+        <v>683</v>
       </c>
       <c r="I22" s="7">
-        <v>51070</v>
+        <v>472456</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
-        <v>142</v>
+        <v>1412</v>
       </c>
       <c r="N22" s="7">
-        <v>99037</v>
+        <v>985914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4404,13 @@
         <v>83781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>114</v>
@@ -4419,13 +4419,13 @@
         <v>80141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -4434,13 +4434,13 @@
         <v>163922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,145 +4449,145 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7">
-        <v>15084</v>
+        <v>47967</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>332</v>
       </c>
       <c r="H24" s="7">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I24" s="7">
-        <v>21027</v>
+        <v>51070</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="N24" s="7">
-        <v>36111</v>
+        <v>99037</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="7">
-        <v>729</v>
-      </c>
       <c r="D25" s="7">
-        <v>513459</v>
+        <v>26689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
-        <v>683</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>472456</v>
+        <v>31268</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="7">
+        <v>83</v>
+      </c>
+      <c r="N25" s="7">
+        <v>57957</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="M25" s="7">
-        <v>1412</v>
-      </c>
-      <c r="N25" s="7">
-        <v>985914</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>26689</v>
+        <v>15084</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="H26" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I26" s="7">
-        <v>31268</v>
+        <v>21027</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N26" s="7">
-        <v>57957</v>
+        <v>36111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>349</v>
@@ -4663,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FA908F-856B-4DD2-B4AD-E70083322DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E9D4EE-FCCE-4350-88E3-EB54A6507019}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +4781,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="D4" s="7">
-        <v>11987</v>
+        <v>109864</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>352</v>
@@ -4796,10 +4796,10 @@
         <v>354</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I4" s="7">
-        <v>9702</v>
+        <v>105929</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>355</v>
@@ -4811,19 +4811,19 @@
         <v>357</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="N4" s="7">
-        <v>21689</v>
+        <v>215793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4838,13 @@
         <v>40520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>49</v>
@@ -4853,13 +4853,13 @@
         <v>29349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M5" s="7">
         <v>109</v>
@@ -4868,13 +4868,13 @@
         <v>69869</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,130 +4883,130 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>2045</v>
+        <v>11987</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2361</v>
+        <v>9702</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>4407</v>
+        <v>21689</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>109864</v>
+        <v>2602</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>377</v>
       </c>
       <c r="H7" s="7">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>105929</v>
+        <v>4054</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6656</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="M7" s="7">
-        <v>339</v>
-      </c>
-      <c r="N7" s="7">
-        <v>215793</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2602</v>
+        <v>2045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>384</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>4054</v>
+        <v>2361</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>385</v>
@@ -5015,19 +5015,19 @@
         <v>386</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>6656</v>
+        <v>4407</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>388</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +5089,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>38817</v>
+        <v>171315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>228</v>
+      </c>
+      <c r="I10" s="7">
+        <v>148107</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H10" s="7">
-        <v>63</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45110</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>477</v>
+      </c>
+      <c r="N10" s="7">
+        <v>319423</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="M10" s="7">
-        <v>116</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83927</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,49 +5140,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>76088</v>
+        <v>57593</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>72</v>
+      </c>
+      <c r="I11" s="7">
+        <v>47546</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H11" s="7">
-        <v>95</v>
-      </c>
-      <c r="I11" s="7">
-        <v>68342</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>156</v>
+      </c>
+      <c r="N11" s="7">
+        <v>105138</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="7">
-        <v>197</v>
-      </c>
-      <c r="N11" s="7">
-        <v>144430</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,151 +5191,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>7865</v>
+        <v>17805</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>40</v>
+      </c>
+      <c r="I12" s="7">
+        <v>26203</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8167</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>410</v>
       </c>
       <c r="M12" s="7">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N12" s="7">
-        <v>16033</v>
+        <v>44007</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>141742</v>
+        <v>976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6596</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H13" s="7">
-        <v>180</v>
-      </c>
-      <c r="I13" s="7">
-        <v>129232</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7573</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="M13" s="7">
-        <v>372</v>
-      </c>
-      <c r="N13" s="7">
-        <v>270974</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>13527</v>
+        <v>1686</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3850</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5536</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>14324</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M14" s="7">
-        <v>38</v>
-      </c>
-      <c r="N14" s="7">
-        <v>27851</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,10 +5344,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>278039</v>
+        <v>249375</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -5359,10 +5359,10 @@
         <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I15" s="7">
-        <v>265175</v>
+        <v>232302</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -5374,10 +5374,10 @@
         <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>718</v>
       </c>
       <c r="N15" s="7">
-        <v>543214</v>
+        <v>481677</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -5391,55 +5391,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>17805</v>
+        <v>141742</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H16" s="7">
+        <v>180</v>
+      </c>
+      <c r="I16" s="7">
+        <v>129232</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H16" s="7">
-        <v>40</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26203</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>372</v>
+      </c>
+      <c r="N16" s="7">
+        <v>270974</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
-      <c r="N16" s="7">
-        <v>44007</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,49 +5448,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>57593</v>
+        <v>76088</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>95</v>
+      </c>
+      <c r="I17" s="7">
+        <v>68342</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H17" s="7">
-        <v>72</v>
-      </c>
-      <c r="I17" s="7">
-        <v>47546</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>197</v>
+      </c>
+      <c r="N17" s="7">
+        <v>144430</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="M17" s="7">
-        <v>156</v>
-      </c>
-      <c r="N17" s="7">
-        <v>105138</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,43 +5499,43 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>1686</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>446</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I18" s="7">
-        <v>3850</v>
+        <v>45110</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="N18" s="7">
-        <v>5536</v>
+        <v>83927</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>450</v>
@@ -5547,103 +5547,103 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>171315</v>
+        <v>13527</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>453</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H19" s="7">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>148107</v>
+        <v>14324</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>456</v>
       </c>
       <c r="M19" s="7">
-        <v>477</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>319423</v>
+        <v>27851</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>457</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>976</v>
+        <v>7865</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>6596</v>
+        <v>8167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>461</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>24</v>
+      </c>
+      <c r="N20" s="7">
+        <v>16033</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7573</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,10 +5652,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>249375</v>
+        <v>278039</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -5667,10 +5667,10 @@
         <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>232302</v>
+        <v>265175</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -5682,10 +5682,10 @@
         <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>481677</v>
+        <v>543214</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -5705,10 +5705,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>96</v>
+        <v>609</v>
       </c>
       <c r="D22" s="7">
-        <v>68609</v>
+        <v>422921</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>465</v>
@@ -5720,10 +5720,10 @@
         <v>467</v>
       </c>
       <c r="H22" s="7">
-        <v>119</v>
+        <v>579</v>
       </c>
       <c r="I22" s="7">
-        <v>81014</v>
+        <v>383269</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>468</v>
@@ -5735,10 +5735,10 @@
         <v>470</v>
       </c>
       <c r="M22" s="7">
-        <v>215</v>
+        <v>1188</v>
       </c>
       <c r="N22" s="7">
-        <v>149623</v>
+        <v>806190</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>471</v>
@@ -5807,10 +5807,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D24" s="7">
-        <v>11597</v>
+        <v>68609</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>483</v>
@@ -5822,10 +5822,10 @@
         <v>485</v>
       </c>
       <c r="H24" s="7">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I24" s="7">
-        <v>14379</v>
+        <v>81014</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>486</v>
@@ -5837,61 +5837,61 @@
         <v>488</v>
       </c>
       <c r="M24" s="7">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="N24" s="7">
-        <v>25976</v>
+        <v>149623</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>489</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>609</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>422921</v>
+        <v>17106</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
-        <v>579</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>383269</v>
+        <v>24974</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>495</v>
       </c>
       <c r="M25" s="7">
-        <v>1188</v>
+        <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>806190</v>
+        <v>42080</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>496</v>
@@ -5906,49 +5906,49 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7">
-        <v>17106</v>
+        <v>11597</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>500</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I26" s="7">
-        <v>24974</v>
+        <v>14379</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>503</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M26" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N26" s="7">
-        <v>42080</v>
+        <v>25976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>505</v>

--- a/data/trans_orig/IP3105-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3105-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840A8C58-C434-4E0A-A6B0-EA51186BCF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98EAD3E-4762-4208-BDF9-A5E6676D7AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD0CC411-C370-4208-A548-EA7CCE22465F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0543005B-32BC-43D3-8BCE-B4F78E3C4C7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="626">
   <si>
     <t>Menores según la frecuencia de tomar yogures en 2007 (Tasa respuesta: 93,11%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -100,13 +100,13 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>3 o 4 veces a la semana</t>
@@ -115,1762 +115,1807 @@
     <t>11,95%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2016 (Tasa respuesta: 92,33%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2015 (Tasa respuesta: 92,33%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>14,8%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>62,21%</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A55E8-FF88-4864-93E6-BF8730FC6D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53551F9A-4F73-443A-B861-FF233AA97997}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2717,10 +2762,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2729,13 +2774,13 @@
         <v>3488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2744,13 +2789,13 @@
         <v>5350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2810,13 @@
         <v>5118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2780,13 +2825,13 @@
         <v>5638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -2795,13 +2840,13 @@
         <v>10756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2861,13 @@
         <v>21345</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2831,13 +2876,13 @@
         <v>18822</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -2846,13 +2891,13 @@
         <v>40167</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2912,13 @@
         <v>50531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -2882,13 +2927,13 @@
         <v>44803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -2897,13 +2942,13 @@
         <v>95334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2963,13 @@
         <v>174194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>267</v>
@@ -2933,13 +2978,13 @@
         <v>178525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>530</v>
@@ -2948,13 +2993,13 @@
         <v>352720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3055,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3022,13 +3067,13 @@
         <v>1206</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3037,13 +3082,13 @@
         <v>605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3052,13 +3097,13 @@
         <v>1811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3118,13 @@
         <v>2577</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3088,13 +3133,13 @@
         <v>2829</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3103,13 +3148,13 @@
         <v>5406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3169,13 @@
         <v>15500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3139,13 +3184,13 @@
         <v>10993</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3154,13 +3199,13 @@
         <v>26493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3220,13 @@
         <v>29182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -3190,13 +3235,13 @@
         <v>28727</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -3205,13 +3250,13 @@
         <v>57909</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3271,13 @@
         <v>91074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -3241,13 +3286,13 @@
         <v>82310</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -3256,13 +3301,13 @@
         <v>173385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3363,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3375,13 @@
         <v>8583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3345,13 +3390,13 @@
         <v>8310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -3360,13 +3405,13 @@
         <v>16893</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3426,13 @@
         <v>9683</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3396,13 +3441,13 @@
         <v>11675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -3411,13 +3456,13 @@
         <v>21359</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3477,13 @@
         <v>28497</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3447,13 +3492,13 @@
         <v>27274</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -3462,13 +3507,13 @@
         <v>55771</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3528,13 @@
         <v>49810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -3498,13 +3543,13 @@
         <v>43271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -3513,13 +3558,13 @@
         <v>93080</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3579,13 @@
         <v>107009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -3549,13 +3594,13 @@
         <v>101984</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>311</v>
@@ -3564,13 +3609,13 @@
         <v>208992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3683,13 @@
         <v>12300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3653,13 +3698,13 @@
         <v>12403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -3668,13 +3713,13 @@
         <v>24703</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3734,13 @@
         <v>18625</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -3704,13 +3749,13 @@
         <v>20143</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -3719,13 +3764,13 @@
         <v>38768</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3785,13 @@
         <v>74544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -3755,13 +3800,13 @@
         <v>61853</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>205</v>
@@ -3770,13 +3815,13 @@
         <v>136397</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3836,13 @@
         <v>141270</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>195</v>
@@ -3806,13 +3851,13 @@
         <v>131568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>406</v>
@@ -3821,13 +3866,13 @@
         <v>272839</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3887,13 @@
         <v>426423</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>611</v>
@@ -3857,13 +3902,13 @@
         <v>408664</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -3872,13 +3917,13 @@
         <v>835086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3979,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85035D19-C896-46B5-8E67-56F9EF37F7FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F73A63-2640-445A-88D5-F349808B7C59}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3971,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4078,13 +4123,13 @@
         <v>747</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4093,13 +4138,13 @@
         <v>1361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4108,13 +4153,13 @@
         <v>2108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4174,13 @@
         <v>1435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4144,13 +4189,13 @@
         <v>1874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4159,13 +4204,13 @@
         <v>3309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4225,13 @@
         <v>1972</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4195,13 +4240,13 @@
         <v>2208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4210,13 +4255,13 @@
         <v>4180</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4276,13 @@
         <v>4307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -4246,13 +4291,13 @@
         <v>7676</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4261,13 +4306,13 @@
         <v>11983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4327,13 @@
         <v>79276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -4297,13 +4342,13 @@
         <v>80037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -4312,13 +4357,13 @@
         <v>159313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4437,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4401,13 +4446,13 @@
         <v>2141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4416,13 +4461,13 @@
         <v>2141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4482,13 @@
         <v>3882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4452,13 +4497,13 @@
         <v>5398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -4467,10 +4512,10 @@
         <v>9280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>278</v>
@@ -4488,13 +4533,13 @@
         <v>13068</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4503,13 +4548,13 @@
         <v>10366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -4518,13 +4563,13 @@
         <v>23435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4584,13 @@
         <v>27535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -4554,13 +4599,13 @@
         <v>21508</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4569,13 +4614,13 @@
         <v>49043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4635,13 @@
         <v>222506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -4605,13 +4650,13 @@
         <v>196339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>593</v>
@@ -4620,13 +4665,13 @@
         <v>418844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4727,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4694,13 +4739,13 @@
         <v>3988</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4709,13 +4754,13 @@
         <v>5392</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4724,13 +4769,13 @@
         <v>9380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4790,13 @@
         <v>8371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -4760,13 +4805,13 @@
         <v>8268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -4775,13 +4820,13 @@
         <v>16639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4841,13 @@
         <v>14534</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4811,13 +4856,13 @@
         <v>16556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>44</v>
@@ -4826,13 +4871,13 @@
         <v>31090</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4892,13 @@
         <v>21636</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -4862,13 +4907,13 @@
         <v>21818</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -4877,13 +4922,13 @@
         <v>43454</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4943,13 @@
         <v>108061</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -4913,13 +4958,13 @@
         <v>104400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
@@ -4928,13 +4973,13 @@
         <v>212462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,7 +5035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5002,13 +5047,13 @@
         <v>10349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -5017,13 +5062,13 @@
         <v>12133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -5032,13 +5077,13 @@
         <v>22482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5098,13 @@
         <v>13001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -5068,13 +5113,13 @@
         <v>15728</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -5083,13 +5128,13 @@
         <v>28729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5149,13 @@
         <v>18393</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -5119,13 +5164,13 @@
         <v>21939</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -5134,13 +5179,13 @@
         <v>40332</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5200,13 @@
         <v>30302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -5170,13 +5215,13 @@
         <v>29139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5185,13 +5230,13 @@
         <v>59441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5251,13 @@
         <v>103616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>129</v>
@@ -5221,13 +5266,13 @@
         <v>91680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>281</v>
@@ -5236,13 +5281,13 @@
         <v>195295</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5355,13 @@
         <v>15084</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -5325,13 +5370,13 @@
         <v>21027</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>28</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -5340,13 +5385,13 @@
         <v>36111</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5406,13 @@
         <v>26689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -5376,13 +5421,13 @@
         <v>31268</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -5391,13 +5436,13 @@
         <v>57957</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>396</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5457,13 @@
         <v>47967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -5427,13 +5472,13 @@
         <v>51070</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -5442,13 +5487,13 @@
         <v>99037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5508,13 @@
         <v>83781</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -5478,13 +5523,13 @@
         <v>80141</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M31" s="7">
         <v>237</v>
@@ -5493,13 +5538,13 @@
         <v>163922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5559,13 @@
         <v>513459</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H32" s="7">
         <v>683</v>
@@ -5529,13 +5574,13 @@
         <v>472456</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="M32" s="7">
         <v>1412</v>
@@ -5544,13 +5589,13 @@
         <v>985914</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,7 +5651,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5626,7 +5671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB069B7-07C1-4DDE-A1C2-090084E4C2DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B4B55-80E7-4FB5-8DDF-FBE2B03ABB83}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5643,7 +5688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5750,13 +5795,13 @@
         <v>650</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5765,13 +5810,13 @@
         <v>1223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5780,13 +5825,13 @@
         <v>1873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5846,13 @@
         <v>2602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5816,13 +5861,13 @@
         <v>3441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5831,13 +5876,13 @@
         <v>6043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5897,13 @@
         <v>6133</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5867,13 +5912,13 @@
         <v>7254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -5882,13 +5927,13 @@
         <v>13386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5948,13 @@
         <v>18917</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5918,13 +5963,13 @@
         <v>13445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5933,13 +5978,13 @@
         <v>32363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5999,13 @@
         <v>49716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>92</v>
@@ -5969,13 +6014,13 @@
         <v>57534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>168</v>
@@ -5984,13 +6029,13 @@
         <v>107250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6103,13 @@
         <v>1395</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -6073,13 +6118,13 @@
         <v>2467</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -6088,13 +6133,13 @@
         <v>3862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6154,13 @@
         <v>976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -6124,13 +6169,13 @@
         <v>2514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -6139,13 +6184,13 @@
         <v>3490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6205,13 @@
         <v>15769</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6175,13 +6220,13 @@
         <v>12147</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -6190,13 +6235,13 @@
         <v>27915</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6256,13 @@
         <v>63063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -6226,13 +6271,13 @@
         <v>46912</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>166</v>
@@ -6241,13 +6286,13 @@
         <v>109974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6307,13 @@
         <v>176181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>228</v>
@@ -6277,13 +6322,13 @@
         <v>145363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -6292,13 +6337,13 @@
         <v>321544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6399,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6366,13 +6411,13 @@
         <v>5343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>508</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6381,13 +6426,13 @@
         <v>3840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>511</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -6396,13 +6441,13 @@
         <v>9182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6462,13 @@
         <v>1381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6432,13 +6477,13 @@
         <v>10549</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -6447,13 +6492,13 @@
         <v>11930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6513,13 @@
         <v>20783</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -6483,13 +6528,13 @@
         <v>33146</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -6498,13 +6543,13 @@
         <v>53929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6564,13 @@
         <v>46851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -6534,13 +6579,13 @@
         <v>40707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -6549,13 +6594,13 @@
         <v>87559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6615,13 @@
         <v>114213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>522</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -6585,13 +6630,13 @@
         <v>96353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
         <v>302</v>
@@ -6600,13 +6645,13 @@
         <v>210566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,7 +6707,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6674,13 +6719,13 @@
         <v>4209</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>531</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6689,13 +6734,13 @@
         <v>6850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6704,13 +6749,13 @@
         <v>11058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>535</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6770,13 @@
         <v>12146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>552</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -6740,13 +6785,13 @@
         <v>8471</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>555</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -6755,13 +6800,13 @@
         <v>20617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6821,13 @@
         <v>25924</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -6791,13 +6836,13 @@
         <v>28468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="M24" s="7">
         <v>76</v>
@@ -6806,13 +6851,13 @@
         <v>54391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6872,13 @@
         <v>45369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -6842,13 +6887,13 @@
         <v>44172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>572</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -6857,13 +6902,13 @@
         <v>89541</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6923,13 @@
         <v>82810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>118</v>
@@ -6893,13 +6938,13 @@
         <v>84020</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -6908,13 +6953,13 @@
         <v>166829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +7027,13 @@
         <v>11597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>568</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -6997,13 +7042,13 @@
         <v>14379</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>572</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -7012,13 +7057,13 @@
         <v>25976</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7078,13 @@
         <v>17106</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -7048,13 +7093,13 @@
         <v>24974</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -7063,13 +7108,13 @@
         <v>42080</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7129,13 @@
         <v>68609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>584</v>
+        <v>338</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>119</v>
@@ -7099,13 +7144,13 @@
         <v>81014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
         <v>215</v>
@@ -7114,13 +7159,13 @@
         <v>149623</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7180,13 @@
         <v>174201</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -7150,13 +7195,13 @@
         <v>145236</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="M31" s="7">
         <v>462</v>
@@ -7165,13 +7210,13 @@
         <v>319437</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7231,13 @@
         <v>422921</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="H32" s="7">
         <v>579</v>
@@ -7201,13 +7246,13 @@
         <v>383269</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="M32" s="7">
         <v>1188</v>
@@ -7216,13 +7261,13 @@
         <v>806190</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7323,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
